--- a/ASP.NET CORE/HRMNS/HRMS/wwwroot/templates/DieuChinhLuong.xlsx
+++ b/ASP.NET CORE/HRMNS/HRMS/wwwroot/templates/DieuChinhLuong.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="DieuChinhLuong" sheetId="1" r:id="rId1"/>
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Họ Tên</t>
   </si>
   <si>
     <t>Mã NV</t>
-  </si>
-  <si>
-    <t>Kết quả điều chỉnh</t>
   </si>
   <si>
     <t>Nội Dung</t>
@@ -31,54 +28,12 @@
     <t>Số Tiền</t>
   </si>
   <si>
-    <t>Ngày Công</t>
-  </si>
-  <si>
-    <t>30% (DS-NS)</t>
-  </si>
-  <si>
-    <t>260% (NS-NH)</t>
-  </si>
-  <si>
-    <t>85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>150%</t>
-  </si>
-  <si>
-    <t>190%</t>
-  </si>
-  <si>
-    <t>200%</t>
-  </si>
-  <si>
-    <t>210%</t>
-  </si>
-  <si>
-    <t>270%</t>
-  </si>
-  <si>
-    <t>300%</t>
-  </si>
-  <si>
-    <t>390%</t>
-  </si>
-  <si>
-    <t>EL/LC</t>
-  </si>
-  <si>
-    <t>Chi Trả Khác</t>
+    <t xml:space="preserve">Ngày Điều Chỉnh
+</t>
   </si>
   <si>
     <t>Trả Vào Lương Tháng
-(yyyy-MM-dd)</t>
-  </si>
-  <si>
-    <t>Ngày Điều Chỉnh
-(yyyy-MM-dd)</t>
+(yyyy-MM)</t>
   </si>
 </sst>
 </file>
@@ -105,7 +60,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,12 +70,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -152,20 +101,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -509,11 +452,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,156 +464,63 @@
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="16" width="11.42578125" customWidth="1"/>
-    <col min="17" max="17" width="17.28515625" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" customWidth="1"/>
-    <col min="19" max="19" width="13" customWidth="1"/>
-    <col min="20" max="20" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>19</v>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="D1:Q1"/>
-    <mergeCell ref="B1:B2"/>
+  <mergeCells count="6">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
